--- a/codebooks/tables.xlsx
+++ b/codebooks/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie/projects/dementia/prediction/codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA42E477-FC93-4A4D-9BA7-670C57FE1DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928AE3EE-C3B3-E54F-B41B-3830CD8B0CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="1620" windowWidth="22260" windowHeight="14120" activeTab="4" xr2:uid="{6C630B20-F913-854F-85AD-EA60866305F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="4" xr2:uid="{6C630B20-F913-854F-85AD-EA60866305F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="233">
   <si>
     <t>Personality</t>
   </si>
@@ -558,10 +558,6 @@
     <t>Cognitive Status</t>
   </si>
   <si>
-    <t>N -&gt; higher risk
-C, O -&gt; lower risk</t>
-  </si>
-  <si>
     <t>Sample not used in the present study</t>
   </si>
   <si>
@@ -572,11 +568,6 @@
   </si>
   <si>
     <t>CERAD, Braak</t>
-  </si>
-  <si>
-    <t>N -&gt; worse resilience
-C -&gt; better resilience
-A -&gt; NFT</t>
   </si>
   <si>
     <t>Terracciano et al.</t>
@@ -772,6 +763,35 @@
     <t>Additional waves of data for EAS, Rush-MAP, and ROS
 Focus was on personality predictors of cognitive decline (slope) and cognitive decline following dementia diagnosis
 No reported associations between personality traits and cognitive status</t>
+  </si>
+  <si>
+    <t>Chapman et al.</t>
+  </si>
+  <si>
+    <t>Project Talent</t>
+  </si>
+  <si>
+    <t>N = 82,232</t>
+  </si>
+  <si>
+    <t>Project Talent Personality Inventory</t>
+  </si>
+  <si>
+    <t>Calm (low N) -&gt; lower risk
+Maturity (high C) -&gt; lower risk</t>
+  </si>
+  <si>
+    <t>N -&gt; higher risk\n
+C, O -&gt; lower risk</t>
+  </si>
+  <si>
+    <t>N -&gt; worse resilience\n
+C -&gt; better resilience
+A -&gt; NFT</t>
+  </si>
+  <si>
+    <t>N -&gt; higher risk\n
+C -&gt; lower risk</t>
   </si>
 </sst>
 </file>
@@ -4770,13 +4790,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F967E350-FE85-0C4F-99A5-C742BD6A686E}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="43.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -4830,15 +4853,15 @@
         <v>168</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>2013</v>
@@ -4847,7 +4870,7 @@
         <v>88</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>166</v>
@@ -4856,30 +4879,30 @@
         <v>167</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>173</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>175</v>
       </c>
       <c r="B4">
         <v>2014</v>
       </c>
       <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="s">
         <v>176</v>
-      </c>
-      <c r="D4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" t="s">
-        <v>178</v>
       </c>
       <c r="F4" t="s">
         <v>167</v>
@@ -4888,24 +4911,24 @@
         <v>168</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B5">
         <v>2015</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>166</v>
@@ -4914,18 +4937,18 @@
         <v>112</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -4934,7 +4957,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
         <v>166</v>
@@ -4946,24 +4969,24 @@
         <v>168</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7">
         <v>2018</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>166</v>
@@ -4975,15 +4998,15 @@
         <v>168</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8">
         <v>2019</v>
@@ -4992,123 +5015,123 @@
         <v>156</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B9">
         <v>2019</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>168</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B10">
         <v>2020</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B11">
         <v>2020</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="F11" t="s">
         <v>167</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B12">
         <v>2021</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>166</v>
@@ -5120,24 +5143,24 @@
         <v>168</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B13">
         <v>2021</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>166</v>
@@ -5149,10 +5172,39 @@
         <v>168</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>225</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>226</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/codebooks/tables.xlsx
+++ b/codebooks/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie/projects/dementia/prediction/codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928AE3EE-C3B3-E54F-B41B-3830CD8B0CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA3AD45-32C6-E441-A9FA-196A47163DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="4" xr2:uid="{6C630B20-F913-854F-85AD-EA60866305F2}"/>
   </bookViews>
@@ -582,14 +582,6 @@
     <t>IPD + meta-analysis</t>
   </si>
   <si>
-    <t>N -&gt; higher risk
-C -&gt; lower risk</t>
-  </si>
-  <si>
-    <t>BLSA not used in the present sample
-Meta-analyzed results from Rush-MAP and ROS, but included much smaller sample (we used an additional 10-15 years of data)</t>
-  </si>
-  <si>
     <t>Wilson et al.</t>
   </si>
   <si>
@@ -605,21 +597,7 @@
     <t>C -&gt; slower terminal but not preterminal decline</t>
   </si>
   <si>
-    <t>Additional waves of data
-Focus was on cognitive decline, not diagnosis
-Only examined deceased participants
-Additional waves of follow-up data</t>
-  </si>
-  <si>
     <t>N = 13,882</t>
-  </si>
-  <si>
-    <t>N -&gt; higher risk
-C, A -&gt; lower risk</t>
-  </si>
-  <si>
-    <t>Used Cox Proportional Hazards Models 
-Additional waves of follow-up data</t>
   </si>
   <si>
     <t>Yoneda et al.</t>
@@ -636,10 +614,6 @@
     <t>N increases -&gt; higher risk</t>
   </si>
   <si>
-    <t>We additionally include neuropathology data from EAS
-Examined associations between personality and change and cognitive status, not baseline levels</t>
-  </si>
-  <si>
     <t>Duchek et al.</t>
   </si>
   <si>
@@ -656,12 +630,6 @@
     <t>C -&gt; lower early dementia risk</t>
   </si>
   <si>
-    <t>Focused on in vivo neuropathology, rather than neuropathology at autopsy
-Only examined taransitions to early stage dementia
-Only investigated N and C
-Additional waves of follow-up data</t>
-  </si>
-  <si>
     <t>Kaup et al.</t>
   </si>
   <si>
@@ -697,11 +665,6 @@
     <t>N-&gt; worse resilience</t>
   </si>
   <si>
-    <t>Focused on association between personality traits and asymmetry between neuropathology and cognitive function / decline. 
-Did not account for dementia diagnoses. 
-Additional waves of follow-up data</t>
-  </si>
-  <si>
     <t>Aschwanden et al.</t>
   </si>
   <si>
@@ -720,10 +683,6 @@
   </si>
   <si>
     <t>C -&gt; lower dementia risk (ELSA only)</t>
-  </si>
-  <si>
-    <t>Used Cox Proportional Hazards Models Different cognitive status indicator that allowed us to use more of the sample
-Additional waves of follow-up data</t>
   </si>
   <si>
     <t>Rush-MAP
@@ -740,11 +699,6 @@
 N (HILDA) = 2778</t>
   </si>
   <si>
-    <t>Used Cox Proportional Hazards Models
-Only meta-analyzed existing previous data that, in many cases, had many fewer waves of follow-up
-Covariates determined by previous publications</t>
-  </si>
-  <si>
     <t>EAS
 MAP
 ROS
@@ -760,11 +714,6 @@
     <t>O -&gt; post-dementia decline</t>
   </si>
   <si>
-    <t>Additional waves of data for EAS, Rush-MAP, and ROS
-Focus was on personality predictors of cognitive decline (slope) and cognitive decline following dementia diagnosis
-No reported associations between personality traits and cognitive status</t>
-  </si>
-  <si>
     <t>Chapman et al.</t>
   </si>
   <si>
@@ -775,10 +724,6 @@
   </si>
   <si>
     <t>Project Talent Personality Inventory</t>
-  </si>
-  <si>
-    <t>Calm (low N) -&gt; lower risk
-Maturity (high C) -&gt; lower risk</t>
   </si>
   <si>
     <t>N -&gt; higher risk\n
@@ -792,6 +737,60 @@
   <si>
     <t>N -&gt; higher risk\n
 C -&gt; lower risk</t>
+  </si>
+  <si>
+    <t>N -&gt; higher risk\n
+C, A -&gt; lower risk</t>
+  </si>
+  <si>
+    <t>Calm (low N) -&gt; lower risk\n
+Maturity (high C) -&gt; lower risk</t>
+  </si>
+  <si>
+    <t>BLSA not used in the present sample.\n
+Meta-analyzed results from Rush-MAP and ROS, but included much smaller sample (we used an additional 10-15 years of data).</t>
+  </si>
+  <si>
+    <t>Additional waves of data.\n
+Focus was on cognitive decline, not diagnosis.\n
+Only examined deceased participants.\n
+Additional waves of follow-up data.\n</t>
+  </si>
+  <si>
+    <t>Used Cox Proportional Hazards Models.\n
+Additional waves of follow-up data.</t>
+  </si>
+  <si>
+    <t>We additionally include neuropathology data from EAS.\n
+Examined associations between personality and change and cognitive status, not baseline levels.</t>
+  </si>
+  <si>
+    <t>Focused on in vivo neuropathology, rather than neuropathology at autopsy.\n
+Only examined taransitions to early stage dementia.\n
+Only investigated N and C.\n
+Additional waves of follow-up data.</t>
+  </si>
+  <si>
+    <t>Sample not used in the present study.</t>
+  </si>
+  <si>
+    <t>Focused on association between personality traits and asymmetry between neuropathology and cognitive function / decline. \n
+Did not account for dementia diagnoses. \n
+Additional waves of follow-up data.</t>
+  </si>
+  <si>
+    <t>Used Cox Proportional Hazards Models Different cognitive status indicator that allowed us to use more of the sample.\n
+Additional waves of follow-up data.</t>
+  </si>
+  <si>
+    <t>Used Cox Proportional Hazards Models.\n
+Only meta-analyzed existing previous data that, in many cases, had many fewer waves of follow-up.\n
+Covariates determined by previous publications.</t>
+  </si>
+  <si>
+    <t>Additional waves of data for EAS, Rush-MAP, and ROS.\n
+Focus was on personality predictors of cognitive decline (slope) and cognitive decline following dementia diagnosis.\n
+No reported associations between personality traits and cognitive status.</t>
   </si>
 </sst>
 </file>
@@ -4792,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F967E350-FE85-0C4F-99A5-C742BD6A686E}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4853,7 +4852,7 @@
         <v>168</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>169</v>
@@ -4882,7 +4881,7 @@
         <v>172</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>169</v>
@@ -4911,24 +4910,24 @@
         <v>168</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5">
         <v>2015</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>166</v>
@@ -4937,16 +4936,16 @@
         <v>112</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
         <v>166</v>
@@ -4969,24 +4968,24 @@
         <v>168</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B7">
         <v>2018</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>166</v>
@@ -4998,15 +4997,15 @@
         <v>168</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="356" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B8">
         <v>2019</v>
@@ -5015,123 +5014,123 @@
         <v>156</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B9">
         <v>2019</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>168</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="340" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B10">
         <v>2020</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="289" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B11">
         <v>2020</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F11" t="s">
         <v>167</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="340" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B12">
         <v>2021</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>166</v>
@@ -5143,24 +5142,24 @@
         <v>168</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B13">
         <v>2021</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>166</v>
@@ -5172,39 +5171,39 @@
         <v>168</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B14">
         <v>2020</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>168</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/codebooks/tables.xlsx
+++ b/codebooks/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie/projects/dementia/prediction/codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA3AD45-32C6-E441-A9FA-196A47163DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A34D4B7-D564-494E-AFFE-0C4722180833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="4" xr2:uid="{6C630B20-F913-854F-85AD-EA60866305F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" activeTab="4" xr2:uid="{6C630B20-F913-854F-85AD-EA60866305F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -607,10 +607,6 @@
 LASA</t>
   </si>
   <si>
-    <t>N (EAS) = 785
-N (LASA) = 1300</t>
-  </si>
-  <si>
     <t>N increases -&gt; higher risk</t>
   </si>
   <si>
@@ -652,10 +648,6 @@
 Rush-MAP</t>
   </si>
   <si>
-    <t>N (ROS) = 783
-N (MAP) = 857</t>
-  </si>
-  <si>
     <t>E, A (ROS), C, O (ROS), N</t>
   </si>
   <si>
@@ -670,10 +662,6 @@
   <si>
     <t>ELSA
 HILDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N (ELSA) = 6,887
-N (HILDA) = 2,778 </t>
   </si>
   <si>
     <t>Meta-analysis</t>
@@ -692,25 +680,12 @@
 HILDA</t>
   </si>
   <si>
-    <t>N (Rush-MAP) = 648
-N (ROS) = 904
-N (WUSM-MAP) = 436
-N (ELSA) = 6887
-N (HILDA) = 2778</t>
-  </si>
-  <si>
     <t>EAS
 MAP
 ROS
 SATSA</t>
   </si>
   <si>
-    <t>N (EAS) = 737
-N (Rush-MAP) = 1233
-N (ROS) = 1466
-N (SATSA) = 707</t>
-  </si>
-  <si>
     <t>O -&gt; post-dementia decline</t>
   </si>
   <si>
@@ -726,71 +701,96 @@
     <t>Project Talent Personality Inventory</t>
   </si>
   <si>
-    <t>N -&gt; higher risk\n
+    <t>Sample not used in the present study.</t>
+  </si>
+  <si>
+    <t>N -&gt; higher risk&lt;br&gt;
 C, O -&gt; lower risk</t>
   </si>
   <si>
-    <t>N -&gt; worse resilience\n
+    <t>N -&gt; worse resilience&lt;br&gt;
 C -&gt; better resilience
 A -&gt; NFT</t>
   </si>
   <si>
-    <t>N -&gt; higher risk\n
+    <t>N -&gt; higher risk&lt;br&gt;
 C -&gt; lower risk</t>
   </si>
   <si>
-    <t>N -&gt; higher risk\n
+    <t>BLSA not used in the present sample.&lt;br&gt;
+Meta-analyzed results from Rush-MAP and ROS, but included much smaller sample (we used an additional 10-15 years of data).</t>
+  </si>
+  <si>
+    <t>Additional waves of data.&lt;br&gt;
+Focus was on cognitive decline, not diagnosis.&lt;br&gt;
+Only examined deceased participants.&lt;br&gt;
+Additional waves of follow-up data.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>N -&gt; higher risk&lt;br&gt;
 C, A -&gt; lower risk</t>
   </si>
   <si>
-    <t>Calm (low N) -&gt; lower risk\n
+    <t>Used Cox Proportional Hazards Models.&lt;br&gt;
+Additional waves of follow-up data.</t>
+  </si>
+  <si>
+    <t>We additionally include neuropathology data from EAS.&lt;br&gt;
+Examined associations between personality and change and cognitive status, not baseline levels.</t>
+  </si>
+  <si>
+    <t>Focused on in vivo neuropathology, rather than neuropathology at autopsy.&lt;br&gt;
+Only examined taransitions to early stage dementia.&lt;br&gt;
+Only investigated N and C.&lt;br&gt;
+Additional waves of follow-up data.</t>
+  </si>
+  <si>
+    <t>Focused on association between personality traits and asymmetry between neuropathology and cognitive function / decline. &lt;br&gt;
+Did not account for dementia diagnoses. &lt;br&gt;
+Additional waves of follow-up data.</t>
+  </si>
+  <si>
+    <t>Used Cox Proportional Hazards Models Different cognitive status indicator that allowed us to use more of the sample.&lt;br&gt;
+Additional waves of follow-up data.</t>
+  </si>
+  <si>
+    <t>Used Cox Proportional Hazards Models.&lt;br&gt;
+Only meta-analyzed existing previous data that, in many cases, had many fewer waves of follow-up.&lt;br&gt;
+Covariates determined by previous publications.</t>
+  </si>
+  <si>
+    <t>Additional waves of data for EAS, Rush-MAP, and ROS.&lt;br&gt;
+Focus was on personality predictors of cognitive decline (slope) and cognitive decline following dementia diagnosis.&lt;br&gt;
+No reported associations between personality traits and cognitive status.</t>
+  </si>
+  <si>
+    <t>Calm (low N) -&gt; lower risk&lt;br&gt;
 Maturity (high C) -&gt; lower risk</t>
   </si>
   <si>
-    <t>BLSA not used in the present sample.\n
-Meta-analyzed results from Rush-MAP and ROS, but included much smaller sample (we used an additional 10-15 years of data).</t>
-  </si>
-  <si>
-    <t>Additional waves of data.\n
-Focus was on cognitive decline, not diagnosis.\n
-Only examined deceased participants.\n
-Additional waves of follow-up data.\n</t>
-  </si>
-  <si>
-    <t>Used Cox Proportional Hazards Models.\n
-Additional waves of follow-up data.</t>
-  </si>
-  <si>
-    <t>We additionally include neuropathology data from EAS.\n
-Examined associations between personality and change and cognitive status, not baseline levels.</t>
-  </si>
-  <si>
-    <t>Focused on in vivo neuropathology, rather than neuropathology at autopsy.\n
-Only examined taransitions to early stage dementia.\n
-Only investigated N and C.\n
-Additional waves of follow-up data.</t>
-  </si>
-  <si>
-    <t>Sample not used in the present study.</t>
-  </si>
-  <si>
-    <t>Focused on association between personality traits and asymmetry between neuropathology and cognitive function / decline. \n
-Did not account for dementia diagnoses. \n
-Additional waves of follow-up data.</t>
-  </si>
-  <si>
-    <t>Used Cox Proportional Hazards Models Different cognitive status indicator that allowed us to use more of the sample.\n
-Additional waves of follow-up data.</t>
-  </si>
-  <si>
-    <t>Used Cox Proportional Hazards Models.\n
-Only meta-analyzed existing previous data that, in many cases, had many fewer waves of follow-up.\n
-Covariates determined by previous publications.</t>
-  </si>
-  <si>
-    <t>Additional waves of data for EAS, Rush-MAP, and ROS.\n
-Focus was on personality predictors of cognitive decline (slope) and cognitive decline following dementia diagnosis.\n
-No reported associations between personality traits and cognitive status.</t>
+    <t>N (EAS) = 785&lt;br&gt;
+N (LASA) = 1300</t>
+  </si>
+  <si>
+    <t>N (ROS) = 783&lt;br&gt;
+N (MAP) = 857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N (ELSA) = 6,887&lt;br&gt;
+N (HILDA) = 2,778 </t>
+  </si>
+  <si>
+    <t>N (Rush-MAP) = 648&lt;br&gt;
+N (ROS) = 904&lt;br&gt;
+N (WUSM-MAP) = 436&lt;br&gt;
+N (ELSA) = 6887&lt;br&gt;
+N (HILDA) = 2778</t>
+  </si>
+  <si>
+    <t>N (EAS) = 737&lt;br&gt;
+N (Rush-MAP) = 1233&lt;br&gt;
+N (ROS) = 1466&lt;br&gt;
+N (SATSA) = 707</t>
   </si>
 </sst>
 </file>
@@ -4792,7 +4792,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4852,7 +4852,7 @@
         <v>168</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>169</v>
@@ -4881,7 +4881,7 @@
         <v>172</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>169</v>
@@ -4910,10 +4910,10 @@
         <v>168</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="204" x14ac:dyDescent="0.2">
@@ -4942,7 +4942,7 @@
         <v>181</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -4968,10 +4968,10 @@
         <v>168</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -4985,7 +4985,7 @@
         <v>184</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>166</v>
@@ -4997,15 +4997,15 @@
         <v>168</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8">
         <v>2019</v>
@@ -5014,123 +5014,123 @@
         <v>156</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9">
         <v>2019</v>
       </c>
       <c r="C9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>168</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10">
         <v>2020</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11">
         <v>2020</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
         <v>167</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12">
         <v>2021</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>166</v>
@@ -5142,24 +5142,24 @@
         <v>168</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13">
         <v>2021</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>166</v>
@@ -5171,39 +5171,39 @@
         <v>168</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B14">
         <v>2020</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>168</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/codebooks/tables.xlsx
+++ b/codebooks/tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie/projects/dementia/prediction/codebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie/GitHub/personality-dementia-neuropath/codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A34D4B7-D564-494E-AFFE-0C4722180833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AEAAD3F-9343-1546-B946-F2F6C420C4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" activeTab="4" xr2:uid="{6C630B20-F913-854F-85AD-EA60866305F2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="213">
   <si>
     <t>Personality</t>
   </si>
@@ -540,15 +540,6 @@
     <t>Comparison with Current Study</t>
   </si>
   <si>
-    <t xml:space="preserve">Duberstein et al. </t>
-  </si>
-  <si>
-    <t>GEM</t>
-  </si>
-  <si>
-    <t>N = 767</t>
-  </si>
-  <si>
     <t>IPD</t>
   </si>
   <si>
@@ -556,18 +547,6 @@
   </si>
   <si>
     <t>Cognitive Status</t>
-  </si>
-  <si>
-    <t>Sample not used in the present study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terracciano et al. </t>
-  </si>
-  <si>
-    <t>N = 111</t>
-  </si>
-  <si>
-    <t>CERAD, Braak</t>
   </si>
   <si>
     <t>Terracciano et al.</t>
@@ -624,21 +603,6 @@
   </si>
   <si>
     <t>C -&gt; lower early dementia risk</t>
-  </si>
-  <si>
-    <t>Kaup et al.</t>
-  </si>
-  <si>
-    <t>Health ABC</t>
-  </si>
-  <si>
-    <t>N = 875</t>
-  </si>
-  <si>
-    <t>C, O</t>
-  </si>
-  <si>
-    <t>C -&gt; lower dementia risk</t>
   </si>
   <si>
     <t>Graham et al.</t>
@@ -689,30 +653,6 @@
     <t>O -&gt; post-dementia decline</t>
   </si>
   <si>
-    <t>Chapman et al.</t>
-  </si>
-  <si>
-    <t>Project Talent</t>
-  </si>
-  <si>
-    <t>N = 82,232</t>
-  </si>
-  <si>
-    <t>Project Talent Personality Inventory</t>
-  </si>
-  <si>
-    <t>Sample not used in the present study.</t>
-  </si>
-  <si>
-    <t>N -&gt; higher risk&lt;br&gt;
-C, O -&gt; lower risk</t>
-  </si>
-  <si>
-    <t>N -&gt; worse resilience&lt;br&gt;
-C -&gt; better resilience
-A -&gt; NFT</t>
-  </si>
-  <si>
     <t>N -&gt; higher risk&lt;br&gt;
 C -&gt; lower risk</t>
   </si>
@@ -762,10 +702,6 @@
     <t>Additional waves of data for EAS, Rush-MAP, and ROS.&lt;br&gt;
 Focus was on personality predictors of cognitive decline (slope) and cognitive decline following dementia diagnosis.&lt;br&gt;
 No reported associations between personality traits and cognitive status.</t>
-  </si>
-  <si>
-    <t>Calm (low N) -&gt; lower risk&lt;br&gt;
-Maturity (high C) -&gt; lower risk</t>
   </si>
   <si>
     <t>N (EAS) = 785&lt;br&gt;
@@ -4789,10 +4725,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F967E350-FE85-0C4F-99A5-C742BD6A686E}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4831,379 +4767,263 @@
     </row>
     <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B2">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>170</v>
       </c>
       <c r="B3">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B4">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>175</v>
       </c>
       <c r="E4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>176</v>
       </c>
-      <c r="F4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B5">
-        <v>2015</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" t="s">
         <v>181</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6">
-        <v>2017</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G6" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B7">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8">
-        <v>2019</v>
-      </c>
-      <c r="C8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9">
-        <v>2019</v>
-      </c>
-      <c r="C9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="B10">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="170" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B10">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11">
-        <v>2020</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13">
-        <v>2021</v>
-      </c>
-      <c r="C13" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14">
-        <v>2020</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/codebooks/tables.xlsx
+++ b/codebooks/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26712"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie/GitHub/personality-dementia-neuropath/codebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie/projects/dementia/prediction/codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AEAAD3F-9343-1546-B946-F2F6C420C4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6A34D4B7-D564-494E-AFFE-0C4722180833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BD0CBC7-B5B0-4C32-8D34-44034AEAE2E2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" activeTab="4" xr2:uid="{6C630B20-F913-854F-85AD-EA60866305F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" firstSheet="4" activeTab="4" xr2:uid="{6C630B20-F913-854F-85AD-EA60866305F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
     <sheet name="Table S3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,457 +42,202 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="213">
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>GSOEP</t>
+  </si>
+  <si>
+    <t>HRS</t>
+  </si>
+  <si>
+    <t>LISS</t>
+  </si>
+  <si>
+    <t>SATSA</t>
+  </si>
+  <si>
+    <t>RUSH-MAP</t>
+  </si>
+  <si>
+    <t>RUSH-ROS</t>
+  </si>
+  <si>
+    <t>ADRC-MAP</t>
+  </si>
+  <si>
+    <t>BLSA</t>
+  </si>
+  <si>
+    <t>EAS</t>
+  </si>
+  <si>
     <t>Personality</t>
   </si>
   <si>
     <t>Extraversion</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>Agreeableness</t>
   </si>
   <si>
     <t>Conscientiousness</t>
   </si>
   <si>
-    <t>Neuroticim</t>
+    <t>Neuroticism</t>
   </si>
   <si>
     <t>Openness to Experience</t>
   </si>
   <si>
+    <t>Satisfaction with Life</t>
+  </si>
+  <si>
+    <t>Positive Affect</t>
+  </si>
+  <si>
+    <t>Negative Affect</t>
+  </si>
+  <si>
+    <t>Outcomes</t>
+  </si>
+  <si>
+    <t>Self-Reported Dementia</t>
+  </si>
+  <si>
+    <t>Braak Stage</t>
+  </si>
+  <si>
+    <t>CERAD</t>
+  </si>
+  <si>
+    <t>Lewy Body Disease</t>
+  </si>
+  <si>
+    <t>Gross Cerebral Infarcts</t>
+  </si>
+  <si>
+    <t>Gross Cerebral Microinfarcts</t>
+  </si>
+  <si>
+    <t>Cerebral Atherosclerosis</t>
+  </si>
+  <si>
+    <t>Cerebral Amyloid Angiopathy</t>
+  </si>
+  <si>
+    <t>Arteriolosclerosis</t>
+  </si>
+  <si>
+    <t>Hippocampal Sclerosis</t>
+  </si>
+  <si>
+    <t>Cognitive</t>
+  </si>
+  <si>
+    <t>Block Design</t>
+  </si>
+  <si>
+    <t>Digits Forward</t>
+  </si>
+  <si>
+    <t>Digits Backward</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Digit Symbol</t>
+  </si>
+  <si>
+    <t>Cued Recall</t>
+  </si>
+  <si>
+    <t>Free Recall</t>
+  </si>
+  <si>
+    <t>Category Fluency</t>
+  </si>
+  <si>
+    <t>Picture Memory</t>
+  </si>
+  <si>
+    <t>Figure Logic</t>
+  </si>
+  <si>
+    <t>Vocabulary</t>
+  </si>
+  <si>
+    <t>Boston Naming Test</t>
+  </si>
+  <si>
+    <t>Progressive Matrices</t>
+  </si>
+  <si>
+    <t>Serial 7's</t>
+  </si>
+  <si>
+    <t>Trail-Making Task</t>
+  </si>
+  <si>
+    <t>Card Rotation</t>
+  </si>
+  <si>
+    <t>Covariates</t>
+  </si>
+  <si>
     <t>Age</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Outcomes</t>
-  </si>
-  <si>
-    <t>GSOEP</t>
-  </si>
-  <si>
-    <t>LISS</t>
-  </si>
-  <si>
-    <t>HRS</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>1 "does not apply at all" to 7 " applies perfectly"</t>
-  </si>
-  <si>
-    <t>2005 (2005, 2009, 2013, 2017)</t>
+    <t xml:space="preserve">Education </t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Self-Rated Health</t>
+  </si>
+  <si>
+    <t>Heart Problems</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Respiratory Problems</t>
   </si>
   <si>
     <t>Smoking</t>
   </si>
   <si>
-    <t>Self-Rated Health</t>
-  </si>
-  <si>
-    <t>Marital Status</t>
-  </si>
-  <si>
-    <t>3 items (angry, sad, worried)</t>
-  </si>
-  <si>
-    <t>1 "very seldom" to 5 "very often"</t>
-  </si>
-  <si>
-    <t>Satisfaction with Life</t>
-  </si>
-  <si>
-    <t>Positive Affect</t>
-  </si>
-  <si>
-    <t>Negative Affect</t>
-  </si>
-  <si>
-    <t>SWLS (Diener, Emmons, Larsen, &amp; Griffin, 1985)</t>
-  </si>
-  <si>
-    <t>1 "strongly disagree" to 7 "strongly agree"</t>
-  </si>
-  <si>
-    <t>PANAS-X (Watson &amp; Clark, 1994)</t>
-  </si>
-  <si>
-    <t>2006-2016</t>
-  </si>
-  <si>
-    <t>*1 "very much" to 5 "not at all"</t>
-  </si>
-  <si>
-    <t>2006/8 (2006/8, 2010/12, 2014/16)</t>
-  </si>
-  <si>
-    <t>1 "very inaccurate" to 5 "very accurate"</t>
-  </si>
-  <si>
-    <t>2008 (2008-2018)</t>
-  </si>
-  <si>
-    <t>**1 "a lot" to 4 "not at all"</t>
-  </si>
-  <si>
-    <t>Used (Available)</t>
-  </si>
-  <si>
-    <t>0 "low" to 10 "high"</t>
-  </si>
-  <si>
-    <t>2005 (1984-2017)</t>
-  </si>
-  <si>
-    <t>10 items (e.g. "distressed")</t>
-  </si>
-  <si>
-    <t>1 "not at all" to 7 "extremely"</t>
-  </si>
-  <si>
-    <t>10 items (e.g. "interested")</t>
-  </si>
-  <si>
-    <t>1 item ("Frequency of being happy in the last 4 weeks")</t>
-  </si>
-  <si>
-    <t>2007 (2007-2017)</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Ethnicity</t>
-  </si>
-  <si>
-    <t>SATSA</t>
-  </si>
-  <si>
-    <t>Braak Stage</t>
-  </si>
-  <si>
-    <t>CERAD</t>
-  </si>
-  <si>
-    <t>Lewy Body Disease</t>
-  </si>
-  <si>
-    <t>Gross Cerebral Infarcts</t>
-  </si>
-  <si>
-    <t>Gross Cerebral Microinfarcts</t>
-  </si>
-  <si>
-    <t>Cerebral Atherosclerosis</t>
-  </si>
-  <si>
-    <t>Cerebral Amyloid Angiopathy</t>
-  </si>
-  <si>
-    <t>Arteriolosclerosis</t>
-  </si>
-  <si>
-    <t>Hippocampal Sclerosis</t>
-  </si>
-  <si>
-    <t>RUSH-MAP</t>
-  </si>
-  <si>
-    <t>RUSH-ROS</t>
-  </si>
-  <si>
-    <t>ADRC-MAP</t>
-  </si>
-  <si>
-    <t>Neuroticism</t>
-  </si>
-  <si>
-    <t>3 items from the 15 item BFI-S (John, Naumann, &amp; Soto, 2008, and Lang, Lüdtke, &amp; Asendorpf, 2001)</t>
-  </si>
-  <si>
-    <t>5 adjectives from a 25 adjective checklist (Lachman &amp; Weaver, 1997)</t>
-  </si>
-  <si>
-    <t>10 items from the 50 item IPIP-50 (Goldberg, 1992)</t>
-  </si>
-  <si>
-    <t>1 "strongly disagree" to 5 "strongly agree"</t>
-  </si>
-  <si>
-    <t>6 items from the NEO Five Factor Inventory</t>
-  </si>
-  <si>
-    <t>12 items from the NEO Five-Factor Inventory (NEO-FFI; Costa &amp; McCrae, 1992)</t>
-  </si>
-  <si>
-    <t>Baseline (Clinical Follow-ups)</t>
-  </si>
-  <si>
-    <t>Baseline (Annual Clinical Followups)</t>
-  </si>
-  <si>
-    <t>1 "Very slightly or not at al" to 5 "Extremely"</t>
-  </si>
-  <si>
-    <t>*1 "Strongly agree" to 7 "Strongly Disagree"</t>
-  </si>
-  <si>
-    <t>1 item "Overall, how happy are you?"</t>
-  </si>
-  <si>
-    <t>*1 "Very happy" to 4 "Not happy at all"</t>
-  </si>
-  <si>
-    <t>Self-Reported Dementia</t>
-  </si>
-  <si>
-    <t>Cognitive</t>
-  </si>
-  <si>
-    <t>Block Design</t>
-  </si>
-  <si>
-    <t>Digits Forward</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Digits Backward</t>
-  </si>
-  <si>
-    <t>Digit Symbol</t>
-  </si>
-  <si>
-    <t>Cued Recall</t>
-  </si>
-  <si>
-    <t>Free Recall</t>
-  </si>
-  <si>
-    <t>Category Fluency</t>
-  </si>
-  <si>
-    <t>Picture Memory</t>
-  </si>
-  <si>
-    <t>Figure Logic</t>
-  </si>
-  <si>
-    <t>Vocabulary</t>
-  </si>
-  <si>
-    <t>Boston Naming Test</t>
-  </si>
-  <si>
-    <t>Progressive Matrices</t>
-  </si>
-  <si>
-    <t>Serial 7's</t>
-  </si>
-  <si>
-    <t>BLSA</t>
-  </si>
-  <si>
-    <t>60 items from the NEO PI-R (Costa and McCrae 1992)</t>
-  </si>
-  <si>
-    <t>1989 (Clinical Follow-ups)</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Baseline (Baseline)</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>Trail-Making Task</t>
-  </si>
-  <si>
-    <t>Card Rotation</t>
-  </si>
-  <si>
-    <t>Covariates</t>
-  </si>
-  <si>
-    <t>Heart Problems</t>
-  </si>
-  <si>
-    <t>Stroke</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>Cancer</t>
-  </si>
-  <si>
-    <t>Respiratory Problems</t>
-  </si>
-  <si>
     <t>Alcohol</t>
   </si>
   <si>
-    <t xml:space="preserve">Education </t>
-  </si>
-  <si>
-    <t>EAS</t>
-  </si>
-  <si>
-    <t>48 items from the NEO PI-R (Costa and McCrae 1992)</t>
-  </si>
-  <si>
-    <t>24 items from the IPIP NEO</t>
-  </si>
-  <si>
-    <t>2004 (Annual Follow-ups)</t>
-  </si>
-  <si>
-    <t>Used</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>p_item</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>SWL</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>9 items from the Eysenck Personality Inventory</t>
-  </si>
-  <si>
-    <t>**1 "exactly right" to 5 "not right at all"</t>
-  </si>
-  <si>
-    <t>1984 (1984, 1987, 1989, 1990, 1992, 1993, 1999, 2002, 2004, 2005, 2007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 items </t>
-  </si>
-  <si>
-    <t>1984 (1984)</t>
-  </si>
-  <si>
-    <t>25 items from the NEO Personality Inventory</t>
-  </si>
-  <si>
-    <t>5 items (e.g., "calm", "harmonious")</t>
-  </si>
-  <si>
-    <t>1984 (1984, 1987, 1989, 1990, 1992, 1993, 1995)</t>
-  </si>
-  <si>
-    <t>6 items (e.g., "worried", "tense")</t>
-  </si>
-  <si>
-    <t>13 items</t>
-  </si>
-  <si>
-    <t>1984 (1984, 1987, 1989, 1990, 1993, 2004, 2007)</t>
-  </si>
-  <si>
-    <t>Rush-MAP </t>
-  </si>
-  <si>
-    <t>ROS </t>
-  </si>
-  <si>
-    <t>WUSM-MAP </t>
-  </si>
-  <si>
-    <t>EAS </t>
-  </si>
-  <si>
-    <t>GSOEP </t>
-  </si>
-  <si>
-    <t>HRS </t>
-  </si>
-  <si>
-    <t>LISS </t>
-  </si>
-  <si>
-    <t>SATSA </t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>The Netherlands</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Domains</t>
-  </si>
-  <si>
-    <t>Big Five Measure</t>
-  </si>
-  <si>
-    <t>SWB Measure</t>
-  </si>
-  <si>
-    <t>Median Year</t>
+    <t>Measures</t>
   </si>
   <si>
     <t>Big Five</t>
-  </si>
-  <si>
-    <t>SWB</t>
-  </si>
-  <si>
-    <t>Dementia</t>
-  </si>
-  <si>
-    <t>Neuropathology</t>
-  </si>
-  <si>
-    <t>Measures</t>
   </si>
   <si>
     <t>IPIP NEO (EAS)
@@ -510,18 +258,273 @@
 MIDI (HRS)"</t>
   </si>
   <si>
+    <t>Neuroticim</t>
+  </si>
+  <si>
+    <t>SWB</t>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
     <t>Clinician Diagnosis or self-reported clinician diagnosis</t>
   </si>
   <si>
+    <t>Neuropathology</t>
+  </si>
+  <si>
+    <t>Braak stage for neurofibrillary degeneration. The focus is on the distribution of neurofibrillary tangles (NFTs).</t>
+  </si>
+  <si>
     <t>CERAD score for density of neocortical neuritic plaque (plaques with argyrophilic dystrophic neurites, with or without dense amyloid cores). Scored without respect to age or diagnosis.</t>
   </si>
   <si>
-    <t>Braak stage for neurofibrillary degeneration. The focus is on the distribution of neurofibrillary tangles (NFTs).</t>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Used (Available)</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>p_item</t>
+  </si>
+  <si>
+    <t>6 items from the NEO Five Factor Inventory</t>
+  </si>
+  <si>
+    <t>1 "strongly disagree" to 5 "strongly agree"</t>
+  </si>
+  <si>
+    <t>Baseline (Baseline)</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
   <si>
     <t>WUSM-MAP</t>
   </si>
   <si>
+    <t>12 items from the NEO Five-Factor Inventory (NEO-FFI; Costa &amp; McCrae, 1992)</t>
+  </si>
+  <si>
+    <t>Baseline (Clinical Follow-ups)</t>
+  </si>
+  <si>
+    <t>48 items from the NEO PI-R (Costa and McCrae 1992)</t>
+  </si>
+  <si>
+    <t>1989 (Clinical Follow-ups)</t>
+  </si>
+  <si>
+    <t>24 items from the IPIP NEO</t>
+  </si>
+  <si>
+    <t>2004 (Annual Follow-ups)</t>
+  </si>
+  <si>
+    <t>9 items from the Eysenck Personality Inventory</t>
+  </si>
+  <si>
+    <t>**1 "exactly right" to 5 "not right at all"</t>
+  </si>
+  <si>
+    <t>1984 (1984, 1987, 1989, 1990, 1992, 1993, 1999, 2002, 2004, 2005, 2007)</t>
+  </si>
+  <si>
+    <t>3 items from the 15 item BFI-S (John, Naumann, &amp; Soto, 2008, and Lang, Lüdtke, &amp; Asendorpf, 2001)</t>
+  </si>
+  <si>
+    <t>1 "does not apply at all" to 7 " applies perfectly"</t>
+  </si>
+  <si>
+    <t>2005 (2005, 2009, 2013, 2017)</t>
+  </si>
+  <si>
+    <t>5 adjectives from a 25 adjective checklist (Lachman &amp; Weaver, 1997)</t>
+  </si>
+  <si>
+    <t>**1 "a lot" to 4 "not at all"</t>
+  </si>
+  <si>
+    <t>2006/8 (2006/8, 2010/12, 2014/16)</t>
+  </si>
+  <si>
+    <t>10 items from the 50 item IPIP-50 (Goldberg, 1992)</t>
+  </si>
+  <si>
+    <t>1 "very inaccurate" to 5 "very accurate"</t>
+  </si>
+  <si>
+    <t>2008 (2008-2018)</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 items </t>
+  </si>
+  <si>
+    <t>1984 (1984)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>60 items from the NEO PI-R (Costa and McCrae 1992)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>25 items from the NEO Personality Inventory</t>
+  </si>
+  <si>
+    <t>SWLS (Diener, Emmons, Larsen, &amp; Griffin, 1985)</t>
+  </si>
+  <si>
+    <t>*1 "Strongly agree" to 7 "Strongly Disagree"</t>
+  </si>
+  <si>
+    <t>Baseline (Annual Clinical Followups)</t>
+  </si>
+  <si>
+    <t>SWL</t>
+  </si>
+  <si>
+    <t>13 items</t>
+  </si>
+  <si>
+    <t>1984 (1984, 1987, 1989, 1990, 1993, 2004, 2007)</t>
+  </si>
+  <si>
+    <t>0 "low" to 10 "high"</t>
+  </si>
+  <si>
+    <t>2005 (1984-2017)</t>
+  </si>
+  <si>
+    <t>1 "strongly disagree" to 7 "strongly agree"</t>
+  </si>
+  <si>
+    <t>1 item "Overall, how happy are you?"</t>
+  </si>
+  <si>
+    <t>*1 "Very happy" to 4 "Not happy at all"</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>5 items (e.g., "calm", "harmonious")</t>
+  </si>
+  <si>
+    <t>1984 (1984, 1987, 1989, 1990, 1992, 1993, 1995)</t>
+  </si>
+  <si>
+    <t>1 item ("Frequency of being happy in the last 4 weeks")</t>
+  </si>
+  <si>
+    <t>1 "very seldom" to 5 "very often"</t>
+  </si>
+  <si>
+    <t>2007 (2007-2017)</t>
+  </si>
+  <si>
+    <t>PANAS-X (Watson &amp; Clark, 1994)</t>
+  </si>
+  <si>
+    <t>*1 "very much" to 5 "not at all"</t>
+  </si>
+  <si>
+    <t>2006-2016</t>
+  </si>
+  <si>
+    <t>10 items (e.g. "interested")</t>
+  </si>
+  <si>
+    <t>1 "not at all" to 7 "extremely"</t>
+  </si>
+  <si>
+    <t>1 "Very slightly or not at al" to 5 "Extremely"</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>6 items (e.g., "worried", "tense")</t>
+  </si>
+  <si>
+    <t>3 items (angry, sad, worried)</t>
+  </si>
+  <si>
+    <t>10 items (e.g. "distressed")</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Domains</t>
+  </si>
+  <si>
+    <t>Big Five Measure</t>
+  </si>
+  <si>
+    <t>SWB Measure</t>
+  </si>
+  <si>
+    <t>Median Year</t>
+  </si>
+  <si>
+    <t>Rush-MAP </t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>ROS </t>
+  </si>
+  <si>
+    <t>WUSM-MAP </t>
+  </si>
+  <si>
+    <t>EAS </t>
+  </si>
+  <si>
+    <t>GSOEP </t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>HRS </t>
+  </si>
+  <si>
+    <t>LISS </t>
+  </si>
+  <si>
+    <t>The Netherlands</t>
+  </si>
+  <si>
+    <t>SATSA </t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
     <t>Paper</t>
   </si>
   <si>
@@ -540,43 +543,65 @@
     <t>Comparison with Current Study</t>
   </si>
   <si>
+    <t>Terracciano et al.</t>
+  </si>
+  <si>
+    <t>BLSA (IPD)</t>
+  </si>
+  <si>
+    <t>N = 1671</t>
+  </si>
+  <si>
+    <t>IPD + meta-analysis</t>
+  </si>
+  <si>
+    <t>E, A, C, N, O</t>
+  </si>
+  <si>
+    <t>Cognitive Status</t>
+  </si>
+  <si>
+    <t>N -&gt; higher risk&lt;br&gt;
+C -&gt; lower risk</t>
+  </si>
+  <si>
+    <t>BLSA not used in the present sample.&lt;br&gt;
+Meta-analyzed results from Rush-MAP and ROS, but included much smaller sample (we used an additional 10-15 years of data).</t>
+  </si>
+  <si>
+    <t>Wilson et al.</t>
+  </si>
+  <si>
+    <t>ROS, Rush-MAP</t>
+  </si>
+  <si>
+    <t>N = 309</t>
+  </si>
+  <si>
     <t>IPD</t>
   </si>
   <si>
-    <t>E, A, C, N, O</t>
-  </si>
-  <si>
-    <t>Cognitive Status</t>
-  </si>
-  <si>
-    <t>Terracciano et al.</t>
-  </si>
-  <si>
-    <t>BLSA (IPD)</t>
-  </si>
-  <si>
-    <t>N = 1671</t>
-  </si>
-  <si>
-    <t>IPD + meta-analysis</t>
-  </si>
-  <si>
-    <t>Wilson et al.</t>
-  </si>
-  <si>
-    <t>ROS, Rush-MAP</t>
-  </si>
-  <si>
-    <t>N = 309</t>
-  </si>
-  <si>
     <t>NFT, Lewy bodies, chronic gross cerebral infarctions, and hippocampal sclerosis,, terminal decline</t>
   </si>
   <si>
     <t>C -&gt; slower terminal but not preterminal decline</t>
   </si>
   <si>
+    <t>Additional waves of data.&lt;br&gt;
+Focus was on cognitive decline, not diagnosis.&lt;br&gt;
+Only examined deceased participants.&lt;br&gt;
+Additional waves of follow-up data.&lt;br&gt;</t>
+  </si>
+  <si>
     <t>N = 13,882</t>
+  </si>
+  <si>
+    <t>N -&gt; higher risk&lt;br&gt;
+C, A -&gt; lower risk</t>
+  </si>
+  <si>
+    <t>Used Cox Proportional Hazards Models.&lt;br&gt;
+Additional waves of follow-up data.</t>
   </si>
   <si>
     <t>Yoneda et al.</t>
@@ -586,7 +611,15 @@
 LASA</t>
   </si>
   <si>
+    <t>N (EAS) = 785&lt;br&gt;
+N (LASA) = 1300</t>
+  </si>
+  <si>
     <t>N increases -&gt; higher risk</t>
+  </si>
+  <si>
+    <t>We additionally include neuropathology data from EAS.&lt;br&gt;
+Examined associations between personality and change and cognitive status, not baseline levels.</t>
   </si>
   <si>
     <t>Duchek et al.</t>
@@ -605,6 +638,12 @@
     <t>C -&gt; lower early dementia risk</t>
   </si>
   <si>
+    <t>Focused on in vivo neuropathology, rather than neuropathology at autopsy.&lt;br&gt;
+Only examined taransitions to early stage dementia.&lt;br&gt;
+Only investigated N and C.&lt;br&gt;
+Additional waves of follow-up data.</t>
+  </si>
+  <si>
     <t>Graham et al.</t>
   </si>
   <si>
@@ -612,6 +651,10 @@
 Rush-MAP</t>
   </si>
   <si>
+    <t>N (ROS) = 783&lt;br&gt;
+N (MAP) = 857</t>
+  </si>
+  <si>
     <t>E, A (ROS), C, O (ROS), N</t>
   </si>
   <si>
@@ -619,6 +662,11 @@
   </si>
   <si>
     <t>N-&gt; worse resilience</t>
+  </si>
+  <si>
+    <t>Focused on association between personality traits and asymmetry between neuropathology and cognitive function / decline. &lt;br&gt;
+Did not account for dementia diagnoses. &lt;br&gt;
+Additional waves of follow-up data.</t>
   </si>
   <si>
     <t>Aschwanden et al.</t>
@@ -628,6 +676,10 @@
 HILDA</t>
   </si>
   <si>
+    <t xml:space="preserve">N (ELSA) = 6,887&lt;br&gt;
+N (HILDA) = 2,778 </t>
+  </si>
+  <si>
     <t>Meta-analysis</t>
   </si>
   <si>
@@ -635,6 +687,10 @@
   </si>
   <si>
     <t>C -&gt; lower dementia risk (ELSA only)</t>
+  </si>
+  <si>
+    <t>Used Cox Proportional Hazards Models Different cognitive status indicator that allowed us to use more of the sample.&lt;br&gt;
+Additional waves of follow-up data.</t>
   </si>
   <si>
     <t>Rush-MAP
@@ -644,78 +700,6 @@
 HILDA</t>
   </si>
   <si>
-    <t>EAS
-MAP
-ROS
-SATSA</t>
-  </si>
-  <si>
-    <t>O -&gt; post-dementia decline</t>
-  </si>
-  <si>
-    <t>N -&gt; higher risk&lt;br&gt;
-C -&gt; lower risk</t>
-  </si>
-  <si>
-    <t>BLSA not used in the present sample.&lt;br&gt;
-Meta-analyzed results from Rush-MAP and ROS, but included much smaller sample (we used an additional 10-15 years of data).</t>
-  </si>
-  <si>
-    <t>Additional waves of data.&lt;br&gt;
-Focus was on cognitive decline, not diagnosis.&lt;br&gt;
-Only examined deceased participants.&lt;br&gt;
-Additional waves of follow-up data.&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>N -&gt; higher risk&lt;br&gt;
-C, A -&gt; lower risk</t>
-  </si>
-  <si>
-    <t>Used Cox Proportional Hazards Models.&lt;br&gt;
-Additional waves of follow-up data.</t>
-  </si>
-  <si>
-    <t>We additionally include neuropathology data from EAS.&lt;br&gt;
-Examined associations between personality and change and cognitive status, not baseline levels.</t>
-  </si>
-  <si>
-    <t>Focused on in vivo neuropathology, rather than neuropathology at autopsy.&lt;br&gt;
-Only examined taransitions to early stage dementia.&lt;br&gt;
-Only investigated N and C.&lt;br&gt;
-Additional waves of follow-up data.</t>
-  </si>
-  <si>
-    <t>Focused on association between personality traits and asymmetry between neuropathology and cognitive function / decline. &lt;br&gt;
-Did not account for dementia diagnoses. &lt;br&gt;
-Additional waves of follow-up data.</t>
-  </si>
-  <si>
-    <t>Used Cox Proportional Hazards Models Different cognitive status indicator that allowed us to use more of the sample.&lt;br&gt;
-Additional waves of follow-up data.</t>
-  </si>
-  <si>
-    <t>Used Cox Proportional Hazards Models.&lt;br&gt;
-Only meta-analyzed existing previous data that, in many cases, had many fewer waves of follow-up.&lt;br&gt;
-Covariates determined by previous publications.</t>
-  </si>
-  <si>
-    <t>Additional waves of data for EAS, Rush-MAP, and ROS.&lt;br&gt;
-Focus was on personality predictors of cognitive decline (slope) and cognitive decline following dementia diagnosis.&lt;br&gt;
-No reported associations between personality traits and cognitive status.</t>
-  </si>
-  <si>
-    <t>N (EAS) = 785&lt;br&gt;
-N (LASA) = 1300</t>
-  </si>
-  <si>
-    <t>N (ROS) = 783&lt;br&gt;
-N (MAP) = 857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N (ELSA) = 6,887&lt;br&gt;
-N (HILDA) = 2,778 </t>
-  </si>
-  <si>
     <t>N (Rush-MAP) = 648&lt;br&gt;
 N (ROS) = 904&lt;br&gt;
 N (WUSM-MAP) = 436&lt;br&gt;
@@ -723,17 +707,36 @@
 N (HILDA) = 2778</t>
   </si>
   <si>
+    <t>Used Cox Proportional Hazards Models.&lt;br&gt;
+Only meta-analyzed existing previous data that, in many cases, had many fewer waves of follow-up.&lt;br&gt;
+Covariates determined by previous publications.</t>
+  </si>
+  <si>
+    <t>EAS
+MAP
+ROS
+SATSA</t>
+  </si>
+  <si>
     <t>N (EAS) = 737&lt;br&gt;
 N (Rush-MAP) = 1233&lt;br&gt;
 N (ROS) = 1466&lt;br&gt;
 N (SATSA) = 707</t>
+  </si>
+  <si>
+    <t>O -&gt; post-dementia decline</t>
+  </si>
+  <si>
+    <t>Additional waves of data for EAS, Rush-MAP, and ROS.&lt;br&gt;
+Focus was on personality predictors of cognitive decline (slope) and cognitive decline following dementia diagnosis.&lt;br&gt;
+No reported associations between personality traits and cognitive status.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1203,783 +1206,783 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" s="7" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="1"/>
       <c r="E11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1989,18 +1992,18 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -2010,18 +2013,18 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -2033,39 +2036,39 @@
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -2075,15 +2078,15 @@
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2095,35 +2098,35 @@
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -2131,499 +2134,499 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -2634,7 +2637,7 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -2645,7 +2648,7 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -2656,7 +2659,7 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -2667,7 +2670,7 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -2678,7 +2681,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -2689,7 +2692,7 @@
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -2700,7 +2703,7 @@
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -2711,7 +2714,7 @@
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -2722,7 +2725,7 @@
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -2733,7 +2736,7 @@
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -2744,7 +2747,7 @@
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -2755,7 +2758,7 @@
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -2766,7 +2769,7 @@
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -2777,7 +2780,7 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -2788,7 +2791,7 @@
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:13">
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -2799,7 +2802,7 @@
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
     </row>
-    <row r="66" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:13">
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -2810,7 +2813,7 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
     </row>
-    <row r="67" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:13">
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -2834,173 +2837,173 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="C1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="119.1">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="119.1">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>149</v>
-      </c>
       <c r="B15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3016,1603 +3019,1603 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="31" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29.1">
+      <c r="A4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F7">
         <v>1984</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.1">
       <c r="A8" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F8">
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>2006</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="F10">
         <v>2008</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.1">
+      <c r="A12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29.1">
+      <c r="A13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F16">
         <v>1984</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.1">
       <c r="A17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F17">
         <v>2005</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F18">
         <v>2006</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="F19">
         <v>2008</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="29.1">
       <c r="A20" s="12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29.1">
       <c r="A21" s="12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29.1">
       <c r="A22" s="12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="27.95">
       <c r="A23" s="12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="27.95">
+      <c r="A24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27.95">
+      <c r="A25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="D25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F25">
         <v>1984</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29.1">
       <c r="A26" s="12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F26" s="19">
         <v>2005</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="27.95">
       <c r="A27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F27" s="19">
         <v>2006</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="27.95">
       <c r="A28" s="12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="F28" s="19">
         <v>2008</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29.1">
       <c r="A29" s="12" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="29.1">
+      <c r="A30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29.1">
+      <c r="A31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F34">
         <v>1984</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="29.1">
       <c r="A35" s="12" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F35">
         <v>2005</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="12" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F36">
         <v>2006</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="12" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="F37">
         <v>2008</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="27.95">
       <c r="A38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="29.1">
+      <c r="A39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="29.1">
+      <c r="A40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="27.95">
+      <c r="A41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="27.95">
+      <c r="A42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="27.95">
+      <c r="A43" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="13" t="s">
+      <c r="C43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F43">
         <v>1984</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="29.1">
       <c r="A44" s="12" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F44">
         <v>2005</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="27.95">
       <c r="A45" s="12" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F45">
         <v>2006</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="27.95">
       <c r="A46" s="12" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="F46">
         <v>2008</v>
       </c>
       <c r="G46" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="29.1">
+      <c r="A47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="G47" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="29.1">
+      <c r="A48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G48" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="27.95">
       <c r="A49" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="27.95">
+      <c r="A50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="27.95">
+      <c r="A51" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="27.95">
+      <c r="A52" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F52">
         <v>1984</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="27.95">
       <c r="A53" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="F53">
         <v>2005</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="27.95">
       <c r="A54" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F54">
         <v>2006</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="27.95">
       <c r="A55" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="F55">
         <v>2008</v>
       </c>
       <c r="G55" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="27.95">
+      <c r="A56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G56" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="27.95">
       <c r="A57" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="27.95">
       <c r="A58" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="C58" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="27.95">
+      <c r="A59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="27.95">
+      <c r="A60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="27.95">
+      <c r="A61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F61">
         <v>1984</v>
       </c>
       <c r="G61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="27.95">
       <c r="A62" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="F62">
         <v>2007</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="27.95">
       <c r="A63" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="F63">
         <v>2006</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="27.95">
       <c r="A64" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="F64">
         <v>2008</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="29.1">
       <c r="A65" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="27.95">
       <c r="A66" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C66" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="27.95">
+      <c r="A67" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="27.95">
+      <c r="A68" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="27.95">
+      <c r="A69" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="27.95">
+      <c r="A70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="F70">
         <v>1984</v>
       </c>
       <c r="G70" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="27.95">
       <c r="A71" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="F71" s="19">
         <v>2007</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="27.95">
       <c r="A72" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="F72" s="19">
         <v>2006</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="27.95">
       <c r="A73" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="F73" s="19">
         <v>2008</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="12"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="12"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="12"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="12"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="12"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -4632,90 +4635,90 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17.100000000000001">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>144</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
       <c r="B2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4725,18 +4728,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F967E350-FE85-0C4F-99A5-C742BD6A686E}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="9" max="9" width="43.33203125" customWidth="1"/>
+    <col min="9" max="9" width="43.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.100000000000001">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -4747,16 +4750,16 @@
         <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
         <v>160</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>161</v>
@@ -4765,267 +4768,271 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="68.099999999999994">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B2">
         <v>2014</v>
       </c>
       <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" t="s">
         <v>167</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="204">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3">
         <v>2015</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="68.099999999999994">
+      <c r="A4" t="s">
         <v>163</v>
-      </c>
-      <c r="F3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>166</v>
       </c>
       <c r="B4">
         <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="68.099999999999994">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>2018</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="102">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B6">
         <v>2019</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="170.1">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B7">
         <v>2020</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="68.099999999999994">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B8">
         <v>2020</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="204">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B9">
         <v>2021</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="153">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B10">
         <v>2021</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
+    </row>
+    <row r="11" spans="1:9" ht="15.75"/>
+    <row r="12" spans="1:9" ht="15.75"/>
+    <row r="13" spans="1:9" ht="15.75"/>
+    <row r="14" spans="1:9" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/codebooks/tables.xlsx
+++ b/codebooks/tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie/projects/dementia/prediction/codebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Library/CloudStorage/OneDrive-UniversityofCalifornia,Davis/dementia/prediction/codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6A34D4B7-D564-494E-AFFE-0C4722180833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BD0CBC7-B5B0-4C32-8D34-44034AEAE2E2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88BCFF-6193-224B-A76A-AB73FC65099C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" firstSheet="4" activeTab="4" xr2:uid="{6C630B20-F913-854F-85AD-EA60866305F2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="225">
   <si>
     <t>Category</t>
   </si>
@@ -731,12 +731,52 @@
 Focus was on personality predictors of cognitive decline (slope) and cognitive decline following dementia diagnosis.&lt;br&gt;
 No reported associations between personality traits and cognitive status.</t>
   </si>
+  <si>
+    <t>2021a</t>
+  </si>
+  <si>
+    <t>2021b</t>
+  </si>
+  <si>
+    <t>Ref #</t>
+  </si>
+  <si>
+    <t>ROS</t>
+  </si>
+  <si>
+    <t>C -&gt; lower risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional waves of data (~15 years of additional follow-ups). &lt;br&gt;
+Used Cox Proportional Hazards Models. &lt;br&gt;
+Only examined Conscientiousness </t>
+  </si>
+  <si>
+    <t>Rush-MAP</t>
+  </si>
+  <si>
+    <t>N = 997</t>
+  </si>
+  <si>
+    <t>N = 648</t>
+  </si>
+  <si>
+    <t>N -&gt; higher risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional waves of data (~15 years of additional follow-ups). &lt;br&gt;
+Used Cox Proportional Hazards Models. &lt;br&gt;
+Only examined Neuroticism </t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -837,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -879,6 +919,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,14 +1247,14 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1283,7 +1324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1313,7 +1354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1345,7 +1386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1380,7 +1421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1413,7 +1454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1443,7 +1484,7 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1467,7 +1508,7 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1490,7 +1531,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +1566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1551,7 +1592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
@@ -1576,7 +1617,7 @@
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
@@ -1603,7 +1644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
@@ -1628,7 +1669,7 @@
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
@@ -1653,7 +1694,7 @@
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
@@ -1678,7 +1719,7 @@
       </c>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
@@ -1703,7 +1744,7 @@
       </c>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
@@ -1728,7 +1769,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
@@ -1755,7 +1796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>32</v>
       </c>
@@ -1777,7 +1818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1806,7 +1847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>32</v>
       </c>
@@ -1837,7 +1878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>32</v>
       </c>
@@ -1859,7 +1900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>32</v>
       </c>
@@ -1885,7 +1926,7 @@
       </c>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
@@ -1909,7 +1950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>32</v>
       </c>
@@ -1940,7 +1981,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>32</v>
       </c>
@@ -1971,7 +2012,7 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>32</v>
       </c>
@@ -1992,7 +2033,7 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>32</v>
       </c>
@@ -2013,7 +2054,7 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>32</v>
       </c>
@@ -2036,7 +2077,7 @@
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>32</v>
       </c>
@@ -2059,7 +2100,7 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>32</v>
       </c>
@@ -2078,7 +2119,7 @@
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>32</v>
       </c>
@@ -2098,7 +2139,7 @@
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>32</v>
       </c>
@@ -2121,7 +2162,7 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>32</v>
       </c>
@@ -2140,7 +2181,7 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>49</v>
       </c>
@@ -2177,7 +2218,7 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>49</v>
       </c>
@@ -2214,7 +2255,7 @@
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>49</v>
       </c>
@@ -2251,7 +2292,7 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>49</v>
       </c>
@@ -2278,7 +2319,7 @@
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>49</v>
       </c>
@@ -2305,7 +2346,7 @@
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>49</v>
       </c>
@@ -2342,7 +2383,7 @@
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>49</v>
       </c>
@@ -2375,7 +2416,7 @@
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>49</v>
       </c>
@@ -2412,7 +2453,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>49</v>
       </c>
@@ -2449,7 +2490,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>49</v>
       </c>
@@ -2486,7 +2527,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>49</v>
       </c>
@@ -2523,7 +2564,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>49</v>
       </c>
@@ -2560,7 +2601,7 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
         <v>49</v>
       </c>
@@ -2593,7 +2634,7 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
         <v>49</v>
       </c>
@@ -2626,7 +2667,7 @@
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -2637,7 +2678,7 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -2648,7 +2689,7 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -2659,7 +2700,7 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -2670,7 +2711,7 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -2681,7 +2722,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -2692,7 +2733,7 @@
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -2703,7 +2744,7 @@
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -2714,7 +2755,7 @@
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -2725,7 +2766,7 @@
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -2736,7 +2777,7 @@
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -2747,7 +2788,7 @@
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -2758,7 +2799,7 @@
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -2769,7 +2810,7 @@
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -2780,7 +2821,7 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -2791,7 +2832,7 @@
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="5:13">
+    <row r="65" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -2802,7 +2843,7 @@
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
     </row>
-    <row r="66" spans="5:13">
+    <row r="66" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -2813,7 +2854,7 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
     </row>
-    <row r="67" spans="5:13">
+    <row r="67" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -2837,17 +2878,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="119.1">
+    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2858,7 +2899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="119.1">
+    <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2869,7 +2910,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2877,7 +2918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2885,7 +2926,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2893,7 +2934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -2901,7 +2942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -2909,7 +2950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -2917,7 +2958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2928,7 +2969,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -2939,7 +2980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -2950,7 +2991,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -2958,7 +2999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2966,7 +3007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -2974,7 +3015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -2982,7 +3023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -2990,7 +3031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -2998,7 +3039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -3019,16 +3060,16 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="31" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3051,7 +3092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
@@ -3071,7 +3112,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
@@ -3091,7 +3132,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.1">
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
@@ -3111,7 +3152,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -3131,7 +3172,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
@@ -3151,7 +3192,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -3174,7 +3215,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.1">
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
@@ -3197,7 +3238,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
@@ -3220,7 +3261,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
@@ -3243,7 +3284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
@@ -3263,7 +3304,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.1">
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -3283,7 +3324,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29.1">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
@@ -3303,7 +3344,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
@@ -3323,7 +3364,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
@@ -3343,7 +3384,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
@@ -3366,7 +3407,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29.1">
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
@@ -3389,7 +3430,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
@@ -3412,7 +3453,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>14</v>
       </c>
@@ -3435,7 +3476,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29.1">
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -3455,7 +3496,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29.1">
+    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>15</v>
       </c>
@@ -3475,7 +3516,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="29.1">
+    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
@@ -3495,7 +3536,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27.95">
+    <row r="23" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>15</v>
       </c>
@@ -3515,7 +3556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27.95">
+    <row r="24" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
@@ -3535,7 +3576,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27.95">
+    <row r="25" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>15</v>
       </c>
@@ -3558,7 +3599,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29.1">
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>15</v>
       </c>
@@ -3581,7 +3622,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27.95">
+    <row r="27" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>15</v>
       </c>
@@ -3604,7 +3645,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="27.95">
+    <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>15</v>
       </c>
@@ -3627,7 +3668,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="29.1">
+    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>16</v>
       </c>
@@ -3647,7 +3688,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="29.1">
+    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>16</v>
       </c>
@@ -3667,7 +3708,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="29.1">
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>16</v>
       </c>
@@ -3687,7 +3728,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>16</v>
       </c>
@@ -3707,7 +3748,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>16</v>
       </c>
@@ -3727,7 +3768,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>16</v>
       </c>
@@ -3750,7 +3791,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="29.1">
+    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>16</v>
       </c>
@@ -3773,7 +3814,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>16</v>
       </c>
@@ -3796,7 +3837,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>16</v>
       </c>
@@ -3819,7 +3860,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="27.95">
+    <row r="38" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>17</v>
       </c>
@@ -3839,7 +3880,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="29.1">
+    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>17</v>
       </c>
@@ -3859,7 +3900,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="29.1">
+    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>17</v>
       </c>
@@ -3879,7 +3920,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="27.95">
+    <row r="41" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>17</v>
       </c>
@@ -3899,7 +3940,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="27.95">
+    <row r="42" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>17</v>
       </c>
@@ -3919,7 +3960,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="27.95">
+    <row r="43" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>17</v>
       </c>
@@ -3942,7 +3983,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="29.1">
+    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>17</v>
       </c>
@@ -3965,7 +4006,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="27.95">
+    <row r="45" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>17</v>
       </c>
@@ -3988,7 +4029,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="27.95">
+    <row r="46" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>17</v>
       </c>
@@ -4011,7 +4052,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="29.1">
+    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>18</v>
       </c>
@@ -4031,7 +4072,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="29.1">
+    <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>18</v>
       </c>
@@ -4051,7 +4092,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="27.95">
+    <row r="49" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>18</v>
       </c>
@@ -4071,7 +4112,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="27.95">
+    <row r="50" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>18</v>
       </c>
@@ -4091,7 +4132,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="27.95">
+    <row r="51" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>18</v>
       </c>
@@ -4111,7 +4152,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="27.95">
+    <row r="52" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>18</v>
       </c>
@@ -4134,7 +4175,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="27.95">
+    <row r="53" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>18</v>
       </c>
@@ -4157,7 +4198,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="27.95">
+    <row r="54" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>18</v>
       </c>
@@ -4180,7 +4221,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="27.95">
+    <row r="55" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>18</v>
       </c>
@@ -4203,7 +4244,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="27.95">
+    <row r="56" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>19</v>
       </c>
@@ -4223,7 +4264,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="27.95">
+    <row r="57" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>19</v>
       </c>
@@ -4243,7 +4284,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="27.95">
+    <row r="58" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>19</v>
       </c>
@@ -4263,7 +4304,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="27.95">
+    <row r="59" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>19</v>
       </c>
@@ -4283,7 +4324,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="27.95">
+    <row r="60" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>19</v>
       </c>
@@ -4303,7 +4344,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="27.95">
+    <row r="61" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>19</v>
       </c>
@@ -4326,7 +4367,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27.95">
+    <row r="62" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>19</v>
       </c>
@@ -4349,7 +4390,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="27.95">
+    <row r="63" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>19</v>
       </c>
@@ -4372,7 +4413,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="27.95">
+    <row r="64" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>19</v>
       </c>
@@ -4395,7 +4436,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="29.1">
+    <row r="65" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>20</v>
       </c>
@@ -4415,7 +4456,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="27.95">
+    <row r="66" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>20</v>
       </c>
@@ -4435,7 +4476,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="27.95">
+    <row r="67" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>20</v>
       </c>
@@ -4455,7 +4496,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="27.95">
+    <row r="68" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>20</v>
       </c>
@@ -4475,7 +4516,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="27.95">
+    <row r="69" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>20</v>
       </c>
@@ -4495,7 +4536,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="27.95">
+    <row r="70" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
         <v>19</v>
       </c>
@@ -4518,7 +4559,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="27.95">
+    <row r="71" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>20</v>
       </c>
@@ -4541,7 +4582,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="27.95">
+    <row r="72" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>20</v>
       </c>
@@ -4564,7 +4605,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="27.95">
+    <row r="73" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>20</v>
       </c>
@@ -4587,35 +4628,35 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="12"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -4635,9 +4676,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.100000000000001">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -4657,7 +4698,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -4665,7 +4706,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -4673,7 +4714,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4681,7 +4722,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -4689,7 +4730,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4697,7 +4738,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -4705,7 +4746,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -4713,7 +4754,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -4728,18 +4769,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F967E350-FE85-0C4F-99A5-C742BD6A686E}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="43.375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.100000000000001">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -4747,292 +4789,382 @@
         <v>158</v>
       </c>
       <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>160</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68.099999999999994">
+    <row r="2" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>163</v>
       </c>
       <c r="B2">
         <v>2014</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>164</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>165</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>166</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="204">
+    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>171</v>
       </c>
       <c r="B3">
+        <v>2006</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4">
+        <v>2007</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5">
         <v>2015</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G5" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="68.099999999999994">
-      <c r="A4" t="s">
+    <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>163</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>2017</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E6" t="s">
         <v>178</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F6" t="s">
         <v>174</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G6" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="68.099999999999994">
-      <c r="A5" t="s">
+    <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>181</v>
-      </c>
-      <c r="B5">
-        <v>2018</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="102">
-      <c r="A6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6">
-        <v>2019</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="170.1">
-      <c r="A7" t="s">
-        <v>192</v>
       </c>
       <c r="B7">
         <v>2020</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>193</v>
+      <c r="C7">
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>196</v>
+      <c r="G7" t="s">
+        <v>167</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="68.099999999999994">
+        <v>184</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B8">
         <v>2020</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G10" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="204">
-      <c r="A9" t="s">
+    <row r="11" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>199</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>2021</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G11" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="153">
-      <c r="A10" t="s">
+    <row r="12" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>192</v>
       </c>
-      <c r="B10">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G12" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75"/>
-    <row r="12" spans="1:9" ht="15.75"/>
-    <row r="13" spans="1:9" ht="15.75"/>
-    <row r="14" spans="1:9" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
